--- a/data/trans_bre/P19C03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.520609862023028</v>
+        <v>-4.00872458661778</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.85551550862204</v>
+        <v>-16.12414418368747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.43832527906552</v>
+        <v>-9.762837297934828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.107960755702568</v>
+        <v>-4.799312477591475</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1071250350577855</v>
+        <v>-0.1288413308143093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4027199541182362</v>
+        <v>-0.4104874589471875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3450729434622278</v>
+        <v>-0.3531737178034012</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2458744565622231</v>
+        <v>-0.2374028690877198</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.56190062999213</v>
+        <v>10.43489955522497</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4209103052673389</v>
+        <v>-1.814588717126508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.237476933449808</v>
+        <v>3.028101443520359</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.57701798707308</v>
+        <v>4.46106492940482</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4143857226327552</v>
+        <v>0.4015856978623469</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.009023827349646808</v>
+        <v>-0.05494694762002157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.156299409908789</v>
+        <v>0.1446063857612283</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3176638297068606</v>
+        <v>0.2970613058891551</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.509229166948268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.976315085751293</v>
+        <v>1.976315085751296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1134617306384031</v>
@@ -749,7 +749,7 @@
         <v>0.0962871835968651</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1278211694774835</v>
+        <v>0.1278211694774838</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.595141704984758</v>
+        <v>-3.584140730250193</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.843151322871486</v>
+        <v>-5.93441963033728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.849784702333277</v>
+        <v>-4.698828201570091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.870488839248347</v>
+        <v>-2.330422786948215</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08951963613446388</v>
+        <v>-0.1049739574135972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1529581872995832</v>
+        <v>-0.1790012688926687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1678942743696689</v>
+        <v>-0.1553029539284525</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1640889583673007</v>
+        <v>-0.1372435004386162</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.57194208755397</v>
+        <v>11.83978171156044</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.17307834626896</v>
+        <v>8.939333020453724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.174449763138327</v>
+        <v>9.731976797616655</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.615541534573323</v>
+        <v>6.749411801486603</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4006488226818887</v>
+        <v>0.4232519354472578</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4300349947219447</v>
+        <v>0.3605030099051209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4161066139836219</v>
+        <v>0.439287202148658</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.509348539712719</v>
+        <v>0.5405567425143321</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.854851262408987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.697125401822942</v>
+        <v>-5.697125401822934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.09544960092498915</v>
@@ -849,7 +849,7 @@
         <v>-0.1297685315090777</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2475579253927286</v>
+        <v>-0.2475579253927283</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.05952811146792</v>
+        <v>-11.89067065636285</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.286536300088128</v>
+        <v>-6.634217149357411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.8723731562153</v>
+        <v>-12.53246888950883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.210674994131</v>
+        <v>-12.80251507252463</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.318125243126373</v>
+        <v>-0.3233978613979042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1980409328029151</v>
+        <v>-0.210332579793397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3732616298236379</v>
+        <v>-0.380962057259604</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4781041350035769</v>
+        <v>-0.4896703858208584</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.005389922299009</v>
+        <v>6.357497791467556</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.03233324225627</v>
+        <v>8.18317880049918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.026678332867413</v>
+        <v>6.364357703147738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.421867452702198</v>
+        <v>0.4877124733904395</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.190982190300674</v>
+        <v>0.1949809586730521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.296045744135868</v>
+        <v>0.3094250501985506</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2253314147879958</v>
+        <v>0.2431322641609736</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07581811282684356</v>
+        <v>0.03701459737727791</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5272420571018144</v>
+        <v>-0.05030306691291535</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8822087486117979</v>
+        <v>-1.26978005096153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7863002146366778</v>
+        <v>-1.075467708214707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.811828778308621</v>
+        <v>-2.39022076259832</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0159690793362239</v>
+        <v>-0.003637223238382897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02954812867580655</v>
+        <v>-0.03823575164442757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02811119577274212</v>
+        <v>-0.03559060472318521</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1229513680274003</v>
+        <v>-0.1075890010302766</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.706531565850206</v>
+        <v>9.953476085717975</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.006613923553632</v>
+        <v>7.97688003653511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.21811755432789</v>
+        <v>8.86506484990918</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.644506160883074</v>
+        <v>5.016870559005688</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3266497611513716</v>
+        <v>0.3350222206973769</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3298338865276742</v>
+        <v>0.2954853115029957</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3030622436780004</v>
+        <v>0.3192062302066112</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2475934912401055</v>
+        <v>0.2797074500074103</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.736771117663838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.5835685353060477</v>
+        <v>-0.5835685353060505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01783945928814083</v>
@@ -1049,7 +1049,7 @@
         <v>0.0643588069214804</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.02966827946309242</v>
+        <v>-0.02966827946309256</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.342481282549737</v>
+        <v>-6.319374111050443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.813933528712375</v>
+        <v>-5.832598020294191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.18827348361273</v>
+        <v>-4.045107822064982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.667296187030441</v>
+        <v>-5.732512417544224</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1896577127946228</v>
+        <v>-0.1679924522442399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.204203343851919</v>
+        <v>-0.1798563459379473</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1370112065748763</v>
+        <v>-0.1363513161190629</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2430114319530333</v>
+        <v>-0.2462535214317518</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.143686087982179</v>
+        <v>7.737262797401147</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.255391711013415</v>
+        <v>5.259402025748846</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.252134538337709</v>
+        <v>7.460464958809617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.04427347467845</v>
+        <v>3.675412421957755</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2919205286204371</v>
+        <v>0.2765854616075059</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2170045259753542</v>
+        <v>0.2175531479858224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3042887312535539</v>
+        <v>0.3286023746973206</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2535629339931656</v>
+        <v>0.2206632515035231</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-6.130742942854855</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5496220589065848</v>
+        <v>-0.549622058906582</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1137679825865326</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2360211433397359</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.03554193803569476</v>
+        <v>-0.03554193803569458</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-10.40881330631836</v>
+        <v>-9.901964850488561</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.49529623150428</v>
+        <v>-12.77825408966085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-12.95280395760151</v>
+        <v>-12.45384447055165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.86439946649302</v>
+        <v>-10.57858679076532</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2879883030224513</v>
+        <v>-0.2862332177268577</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.340962104954268</v>
+        <v>-0.335897154203985</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.409734937670632</v>
+        <v>-0.4009173195979208</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.475474057007586</v>
+        <v>-0.4486118936118794</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.762419096643469</v>
+        <v>3.142606174064112</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9592379915752958</v>
+        <v>1.376053667302917</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.2183221986575465</v>
+        <v>0.1479095128748264</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.846078717495215</v>
+        <v>7.027764993656002</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1577799530179031</v>
+        <v>0.1204084507858167</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03454249744008018</v>
+        <v>0.04751537292963625</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.004206122956109871</v>
+        <v>0.01033885265425403</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7783121005582989</v>
+        <v>0.7847273859169104</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-1.398485196193433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.8885868792865625</v>
+        <v>-0.8885868792865653</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00282616162143881</v>
@@ -1249,7 +1249,7 @@
         <v>-0.05073128170713247</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.04653206605767643</v>
+        <v>-0.04653206605767657</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.665825717751841</v>
+        <v>-2.342849366323417</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.404238155447827</v>
+        <v>-3.602470207751292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.808764057980751</v>
+        <v>-3.803509485164137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.754796179532732</v>
+        <v>-2.778631946412015</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.07989831309250126</v>
+        <v>-0.0694771707758792</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.109450595878597</v>
+        <v>-0.1129443178851564</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1311536070275022</v>
+        <v>-0.1294828803311854</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1386525466363583</v>
+        <v>-0.1374815291759498</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.524799834807671</v>
+        <v>2.704678011036455</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.431355497320418</v>
+        <v>1.375258662913198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8694112290508964</v>
+        <v>1.066964926977979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.114947541396454</v>
+        <v>1.072971080000838</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08340493794835573</v>
+        <v>0.08843685451178523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04990333434038521</v>
+        <v>0.04855103682714935</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0343802425871168</v>
+        <v>0.0456488042291777</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.06192213677726346</v>
+        <v>0.05930773240768607</v>
       </c>
     </row>
     <row r="25">
